--- a/resources/data-imports/Affixes/ring_crafting.xlsx
+++ b/resources/data-imports/Affixes/ring_crafting.xlsx
@@ -779,9 +779,6 @@
       <c r="U2">
         <v>0</v>
       </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
       <c r="X2">
         <v>10</v>
       </c>
@@ -836,7 +833,7 @@
         <v>45</v>
       </c>
       <c r="J3">
-        <v>0.015</v>
+        <v>0.07</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -866,9 +863,6 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
@@ -925,7 +919,7 @@
         <v>47</v>
       </c>
       <c r="J4">
-        <v>0.0226</v>
+        <v>0.12</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -955,9 +949,6 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
@@ -1014,7 +1005,7 @@
         <v>49</v>
       </c>
       <c r="J5">
-        <v>0.034</v>
+        <v>0.18</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1044,9 +1035,6 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
@@ -1103,7 +1091,7 @@
         <v>51</v>
       </c>
       <c r="J6">
-        <v>0.0511</v>
+        <v>0.24</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1133,9 +1121,6 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
@@ -1189,7 +1174,7 @@
         <v>53</v>
       </c>
       <c r="J7">
-        <v>0.0767</v>
+        <v>0.29</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -1219,9 +1204,6 @@
         <v>0</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
@@ -1275,7 +1257,7 @@
         <v>55</v>
       </c>
       <c r="J8">
-        <v>0.1153</v>
+        <v>0.35</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1305,9 +1287,6 @@
         <v>0</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
@@ -1361,7 +1340,7 @@
         <v>57</v>
       </c>
       <c r="J9">
-        <v>0.1862</v>
+        <v>0.41</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1391,9 +1370,6 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
@@ -1447,7 +1423,7 @@
         <v>59</v>
       </c>
       <c r="J10">
-        <v>0.2827</v>
+        <v>0.47</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1477,9 +1453,6 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
@@ -1533,7 +1506,7 @@
         <v>61</v>
       </c>
       <c r="J11">
-        <v>0.4292</v>
+        <v>0.52</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1563,9 +1536,6 @@
         <v>0</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
@@ -1619,7 +1589,7 @@
         <v>63</v>
       </c>
       <c r="J12">
-        <v>0.6518</v>
+        <v>0.58</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1649,9 +1619,6 @@
         <v>0</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
@@ -1705,7 +1672,7 @@
         <v>65</v>
       </c>
       <c r="J13">
-        <v>0.88</v>
+        <v>0.64</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1735,9 +1702,6 @@
         <v>0</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
@@ -1791,7 +1755,7 @@
         <v>67</v>
       </c>
       <c r="J14">
-        <v>0.96</v>
+        <v>0.69</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1821,9 +1785,6 @@
         <v>0</v>
       </c>
       <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
@@ -1877,7 +1838,7 @@
         <v>69</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1907,9 +1868,6 @@
         <v>0</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
